--- a/biology/Zoologie/Apocalypsis_velox/Apocalypsis_velox.xlsx
+++ b/biology/Zoologie/Apocalypsis_velox/Apocalypsis_velox.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Apocalypsis velox est une espèce de lépidoptères (papillons) de la famille des Sphingidae, de la sous-famille des Sphinginae et de la tribu des Sphingini.
 Elle est l'unique espèce du genre monotypique Apocalypsis.
@@ -512,9 +524,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre Apocalypsis et l’espèce Apocalypsis velox ont été décrits par l'entomologiste britannique Arthur Gardiner Butler, en 1876[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Apocalypsis et l’espèce Apocalypsis velox ont été décrits par l'entomologiste britannique Arthur Gardiner Butler, en 1876.
 Le genre a un homonyme junior, Apocalypsis Bochkov, 2010 (Acariformes:Myocoptidae), qui a été renommé en Apocalyptoides Bochkov, 2016.
 </t>
         </is>
@@ -544,7 +558,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L'envergure est d'environ 136 mm. Le motif de la face dorsale de l'aile supérieure est similaire à celle de Euryglottis aper. La femelle est plus grande que le mâle.
 			Face dorsale de la femelle MHNT
@@ -577,7 +593,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle se trouve du nord-est de l'Inde, au sud-ouest de la Chine et vers le nord du Vietnam.
 </t>
@@ -608,7 +626,9 @@
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Les chenilles se développent sur Callicarpa arborea en Inde.
 </t>
